--- a/public/excel/template-mapel.xlsx
+++ b/public/excel/template-mapel.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Office\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9628E1D6-A621-4955-98B7-6520D5D4B5E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28B6EEC-D310-4B46-97D5-1FBE83C02036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F5B5B16F-C19B-4843-81B4-9AA2068EC96E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF0C30E2-7EDB-47DC-B966-B510FBC1D233}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,9 +34,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>mapel</t>
+    <r>
+      <t xml:space="preserve">SILAHKAN MASUKKAN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NAMA MAPEL</t>
+    </r>
+  </si>
+  <si>
+    <t>Nama Mapel</t>
   </si>
 </sst>
 </file>
@@ -46,13 +66,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -67,7 +86,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -84,10 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -402,25 +424,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A42167-9E4B-416B-B47B-1568BA96AD5B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48FA399B-1B3E-46D4-8DC8-A99CCFB29BAD}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/public/excel/template-mapel.xlsx
+++ b/public/excel/template-mapel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ketuntasan\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28B6EEC-D310-4B46-97D5-1FBE83C02036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AEFC04-ACD2-45C0-AF3B-B0A32452EF77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF0C30E2-7EDB-47DC-B966-B510FBC1D233}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A98B7471-7E75-4ADE-BCCF-A321650F98F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -86,7 +83,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -105,9 +102,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -424,19 +419,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48FA399B-1B3E-46D4-8DC8-A99CCFB29BAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4467BC-4FFB-445A-9BBC-DFA4A316FC07}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -448,5 +443,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>